--- a/fastapi-backend/assets/aug_test.xlsx
+++ b/fastapi-backend/assets/aug_test.xlsx
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:M2130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
